--- a/Lý10.xlsx
+++ b/Lý10.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\LTUDQL1\DA-LTUDQL1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CauHoi" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="152">
   <si>
     <t>maCH</t>
   </si>
@@ -581,6 +581,9 @@
   </si>
   <si>
     <t>Công thức chương 4</t>
+  </si>
+  <si>
+    <t>TenCD</t>
   </si>
 </sst>
 </file>
@@ -979,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -995,7 +998,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1521,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
